--- a/PFOA inhalation Rat/Data/PFOA_male_feces_oral_high_Cui_2010.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_male_feces_oral_high_Cui_2010.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Desktop\NTUA Post-Doc\PBK models-Evie\PFOA Inhalation\Data\Cui et al., 2010\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89537629-A7CC-4B8E-AB94-02664A173197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3FA7D6-8AFC-40E8-B029-0B82185CC982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>Dose_mg_per_kg</t>
   </si>
@@ -47,16 +47,22 @@
     <t>oral</t>
   </si>
   <si>
+    <t>Mass_mg</t>
+  </si>
+  <si>
     <t>Tissue</t>
   </si>
   <si>
     <t>Time_hours</t>
   </si>
   <si>
+    <t>C ug/mL</t>
+  </si>
+  <si>
     <t>Feces</t>
   </si>
   <si>
-    <t>Concentration_microg_per_g_organ</t>
+    <t>feces weight (g)</t>
   </si>
 </sst>
 </file>
@@ -435,14 +441,14 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" customWidth="1"/>
@@ -450,13 +456,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -465,208 +471,262 @@
         <v>1</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3">
         <v>24</v>
       </c>
       <c r="C2" s="3">
+        <v>0.46153846153846201</v>
+      </c>
+      <c r="D2" s="3">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3">
+        <v>7.15</v>
+      </c>
+      <c r="H2" s="4">
+        <f>C2*1000/G2</f>
         <v>64.550833781603075</v>
       </c>
-      <c r="D2" s="3">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3">
         <v>72</v>
       </c>
       <c r="C3" s="3">
+        <v>1.1111111111111101</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
+        <v>7.54</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H11" si="0">C3*1000/G3</f>
         <v>147.36221632773342</v>
       </c>
-      <c r="D3" s="3">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3">
         <v>120</v>
       </c>
       <c r="C4" s="3">
+        <v>1.2307692307692299</v>
+      </c>
+      <c r="D4" s="3">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>7.75</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
         <v>158.8089330024813</v>
       </c>
-      <c r="D4" s="3">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>168</v>
       </c>
       <c r="C5" s="3">
+        <v>1.1111111111111101</v>
+      </c>
+      <c r="D5" s="3">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
+        <v>7.78</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
         <v>142.81633818908867</v>
       </c>
-      <c r="D5" s="3">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>240</v>
       </c>
       <c r="C6" s="3">
+        <v>1.5384615384615401</v>
+      </c>
+      <c r="D6" s="3">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>7.94</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
         <v>193.76089905057179</v>
       </c>
-      <c r="D6" s="3">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3">
         <v>336</v>
       </c>
       <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
         <v>207.90020790020793</v>
       </c>
-      <c r="D7" s="3">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>432</v>
       </c>
       <c r="C8" s="3">
+        <v>2.29059829059829</v>
+      </c>
+      <c r="D8" s="3">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
         <v>206.36020636020632</v>
       </c>
-      <c r="D8" s="3">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>504</v>
       </c>
       <c r="C9" s="3">
+        <v>1.6239316239316199</v>
+      </c>
+      <c r="D9" s="3">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
         <v>132.02696129525364</v>
       </c>
-      <c r="D9" s="3">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3">
         <v>576</v>
       </c>
       <c r="C10" s="3">
+        <v>2.0683760683760699</v>
+      </c>
+      <c r="D10" s="3">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
         <v>153.21304210193108</v>
       </c>
-      <c r="D10" s="3">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3">
         <v>672</v>
       </c>
       <c r="C11" s="3">
+        <v>2.47863247863248</v>
+      </c>
+      <c r="D11" s="3">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
         <v>173.33094256171188</v>
       </c>
-      <c r="D11" s="3">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>

--- a/PFOA inhalation Rat/Data/PFOA_male_feces_oral_high_Cui_2010.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_male_feces_oral_high_Cui_2010.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Desktop\NTUA Post-Doc\PBK models-Evie\PFOA Inhalation\Data\Cui et al., 2010\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3FA7D6-8AFC-40E8-B029-0B82185CC982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A1394D-6B3A-4830-BA79-96E4E0969D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
-  <si>
-    <t>Dose_mg_per_kg</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>oral</t>
-  </si>
-  <si>
-    <t>Mass_mg</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="4">
   <si>
     <t>Tissue</t>
   </si>
@@ -56,13 +44,10 @@
     <t>Time_hours</t>
   </si>
   <si>
-    <t>C ug/mL</t>
-  </si>
-  <si>
     <t>Feces</t>
   </si>
   <si>
-    <t>feces weight (g)</t>
+    <t>Mass_mg</t>
   </si>
 </sst>
 </file>
@@ -72,7 +57,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +71,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -106,10 +98,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -124,9 +117,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{9E4CEAF4-91F1-4E43-B8D9-05B4FD1EDC86}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -441,7 +436,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A11" sqref="A11:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,282 +451,190 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3">
         <v>24</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>0.46153846153846201</v>
       </c>
-      <c r="D2" s="3">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3">
-        <v>7.15</v>
-      </c>
-      <c r="H2" s="4">
-        <f>C2*1000/G2</f>
-        <v>64.550833781603075</v>
-      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>72</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1.1111111111111101</v>
-      </c>
-      <c r="D3" s="3">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1.2478632478632501</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3">
-        <v>7.54</v>
-      </c>
-      <c r="H3" s="4">
-        <f t="shared" ref="H3:H11" si="0">C3*1000/G3</f>
-        <v>147.36221632773342</v>
-      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>120</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.2307692307692299</v>
-      </c>
-      <c r="D4" s="3">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2.3589743589743599</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3">
-        <v>7.75</v>
-      </c>
-      <c r="H4" s="4">
-        <f t="shared" si="0"/>
-        <v>158.8089330024813</v>
-      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>168</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1.1111111111111101</v>
-      </c>
-      <c r="D5" s="3">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3.5299145299145298</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3">
-        <v>7.78</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>142.81633818908867</v>
-      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>240</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.5384615384615401</v>
-      </c>
-      <c r="D6" s="3">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4.7606837606837598</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <v>7.94</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="0"/>
-        <v>193.76089905057179</v>
-      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3">
-        <v>336</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5.9316239316239301</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3">
-        <v>9.6199999999999992</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>207.90020790020793</v>
-      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3">
-        <v>432</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2.29059829059829</v>
-      </c>
-      <c r="D8" s="3">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C8" s="6">
+        <v>7.0427350427350399</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <v>11.1</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="0"/>
-        <v>206.36020636020632</v>
-      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9" s="3">
-        <v>504</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.6239316239316199</v>
-      </c>
-      <c r="D9" s="3">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8.2962962962962905</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3">
-        <v>12.3</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="0"/>
-        <v>132.02696129525364</v>
-      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B10" s="3">
-        <v>576</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2.0683760683760699</v>
-      </c>
-      <c r="D10" s="3">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C10" s="6">
+        <v>9.6923076923076898</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="0"/>
-        <v>153.21304210193108</v>
-      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B11" s="3">
-        <v>672</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2.47863247863248</v>
-      </c>
-      <c r="D11" s="3">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C11" s="6">
+        <v>11.2307692307692</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3">
-        <v>14.3</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="0"/>
-        <v>173.33094256171188</v>
-      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>264</v>
+      </c>
+      <c r="C12" s="6">
+        <v>12.884615384615399</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -739,9 +642,15 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
+        <v>288</v>
+      </c>
+      <c r="C13" s="6">
+        <v>14.653846153846199</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -749,9 +658,15 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>312</v>
+      </c>
+      <c r="C14" s="6">
+        <v>16.538461538461501</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -759,69 +674,185 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>336</v>
+      </c>
+      <c r="C15" s="6">
+        <v>18.538461538461501</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>360</v>
+      </c>
+      <c r="C16" s="6">
+        <v>20.6111111111111</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>384</v>
+      </c>
+      <c r="C17" s="6">
+        <v>22.756410256410302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>408</v>
+      </c>
+      <c r="C18" s="6">
+        <v>24.974358974358999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>432</v>
+      </c>
+      <c r="C19" s="6">
+        <v>27.2649572649573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>456</v>
+      </c>
+      <c r="C20" s="6">
+        <v>29.3333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>480</v>
+      </c>
+      <c r="C21" s="6">
+        <v>31.1794871794872</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>504</v>
+      </c>
+      <c r="C22" s="6">
+        <v>32.803418803418801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>528</v>
+      </c>
+      <c r="C23" s="6">
+        <v>34.5754985754986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>552</v>
+      </c>
+      <c r="C24" s="6">
+        <v>36.495726495726501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>576</v>
+      </c>
+      <c r="C25" s="6">
+        <v>38.564102564102598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>600</v>
+      </c>
+      <c r="C26" s="6">
+        <v>40.735042735042697</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>624</v>
+      </c>
+      <c r="C27" s="6">
+        <v>43.008547008546998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>648</v>
+      </c>
+      <c r="C28" s="6">
+        <v>45.384615384615401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>672</v>
+      </c>
+      <c r="C29" s="6">
+        <v>47.863247863247899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
